--- a/biology/Médecine/Jean-Baptiste_Caqué/Jean-Baptiste_Caqué.xlsx
+++ b/biology/Médecine/Jean-Baptiste_Caqué/Jean-Baptiste_Caqué.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Baptiste_Caqu%C3%A9</t>
+          <t>Jean-Baptiste_Caqué</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Baptiste Caqué, né à Machault (Ardennes) le 9 octobre 1720 et mort à Reims le 16 septembre 1787, est un médecin français. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Baptiste_Caqu%C3%A9</t>
+          <t>Jean-Baptiste_Caqué</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut l'élève de Pierre Benomont, son compatriote, et devint chirurgien en chef de l'Hôtel-Dieu de Reims, lieutenant du premier chirurgien du Roi et associé de l'Académie royale de Chirurgie. 
 Il conquit sa réputation dans les hôpitaux militaires. Au siège de Fribourg, en octobre 1744, il passa huit jours et huit nuits à la tranchée pour panser les blessés.
